--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -673,67 +673,67 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="I2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.42</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U2" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>1.25</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
@@ -742,37 +742,37 @@
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
         <v>140</v>
       </c>
       <c r="AK2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="n">
         <v>80</v>
       </c>
-      <c r="AL2" t="n">
-        <v>90</v>
-      </c>
       <c r="AM2" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
@@ -817,94 +817,94 @@
         <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,34 +961,34 @@
         <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O4" t="n">
         <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.81</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -997,7 +997,7 @@
         <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>100</v>
@@ -1009,37 +1009,37 @@
         <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>60</v>
       </c>
       <c r="AF4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
         <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
         <v>80</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -676,37 +676,37 @@
         <v>1.87</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
         <v>1.94</v>
@@ -715,7 +715,7 @@
         <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W2" t="n">
         <v>1.25</v>
@@ -763,7 +763,7 @@
         <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
         <v>160</v>
@@ -772,7 +772,7 @@
         <v>110</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>1.54</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
         <v>6.2</v>
@@ -814,7 +814,7 @@
         <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>4.9</v>
@@ -826,34 +826,34 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
         <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
@@ -868,7 +868,7 @@
         <v>220</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
@@ -880,7 +880,7 @@
         <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -889,7 +889,7 @@
         <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
         <v>980</v>
@@ -904,7 +904,7 @@
         <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G4" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M4" t="n">
         <v>1.12</v>
@@ -967,10 +967,10 @@
         <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
         <v>1.2</v>
@@ -982,13 +982,13 @@
         <v>2.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="X4" t="n">
         <v>10.5</v>
@@ -1000,7 +1000,7 @@
         <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="n">
         <v>7.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="I2" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15</v>
       </c>
-      <c r="Y2" t="n">
-        <v>8</v>
-      </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH2" t="n">
         <v>23</v>
       </c>
-      <c r="AB2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>22</v>
-      </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Bihor Oradea</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.64</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -923,125 +923,395 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.42</v>
+        <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>2.46</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>1.87</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="n">
         <v>980</v>
       </c>
-      <c r="AA4" t="n">
-        <v>95</v>
-      </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>980</v>
       </c>
       <c r="AG4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>980</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AA6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD6" t="n">
         <v>980</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AE6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
         <v>80</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ6" t="n">
         <v>980</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK6" t="n">
         <v>980</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL6" t="n">
         <v>65</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM6" t="n">
         <v>200</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN6" t="n">
         <v>980</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO6" t="n">
         <v>80</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
         <v>2.48</v>
@@ -685,7 +685,7 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -700,10 +700,10 @@
         <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
         <v>2.62</v>
@@ -712,7 +712,7 @@
         <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.67</v>
@@ -940,19 +940,19 @@
         <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I4" t="n">
         <v>1.87</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -967,10 +967,10 @@
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
         <v>1.29</v>
@@ -988,67 +988,67 @@
         <v>2.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
         <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK4" t="n">
         <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.04</v>
       </c>
-      <c r="N5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.81</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,136 +1183,676 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Club Atletico Tembetary</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Brazilian Serie A</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>2025-11-20</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="X7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>19:10:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Corinthians</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F9" t="n">
         <v>2.44</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G9" t="n">
         <v>2.58</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H9" t="n">
         <v>3.45</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I9" t="n">
         <v>3.85</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K9" t="n">
         <v>3.1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.56</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="Q9" t="n">
         <v>2.58</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R9" t="n">
         <v>1.2</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S9" t="n">
         <v>5.3</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T9" t="n">
         <v>2.04</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U9" t="n">
         <v>1.83</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V9" t="n">
         <v>1.35</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W9" t="n">
         <v>1.63</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="Z9" t="n">
         <v>980</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA9" t="n">
         <v>95</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB9" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC9" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD9" t="n">
         <v>980</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE9" t="n">
         <v>60</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF9" t="n">
         <v>980</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG9" t="n">
         <v>980</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH9" t="n">
         <v>980</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI9" t="n">
         <v>80</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ9" t="n">
         <v>980</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK9" t="n">
         <v>980</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL9" t="n">
         <v>65</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM9" t="n">
         <v>200</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN9" t="n">
         <v>980</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO9" t="n">
         <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Club Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.48</v>
+        <v>980</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.53</v>
       </c>
       <c r="U2" t="n">
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,31 +793,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bihor Oradea</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,76 +826,76 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.16</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Bihor Oradea</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>1.87</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.44</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>8.6</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>1.29</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1123,7 +1123,7 @@
         <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.49</v>
+        <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64</v>
+        <v>5.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>1.86</v>
       </c>
       <c r="I6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z6" t="n">
         <v>10.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.53</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.57</v>
-      </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>2.16</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>2.26</v>
+        <v>1.59</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.49</v>
+        <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.46</v>
+        <v>1.89</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1598,261 +1598,936 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>1.57</v>
       </c>
       <c r="G9" t="n">
-        <v>2.58</v>
+        <v>1.58</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>1.56</v>
+        <v>2.26</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.58</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="n">
-        <v>5.3</v>
+        <v>2.74</v>
       </c>
       <c r="T9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.04</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>1.63</v>
+        <v>2.72</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19:10:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Paraguayan Primera Division</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>2025-11-20</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>19:30:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Nacional (Par)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Club Sportivo Ameliano</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F12" t="n">
         <v>1.91</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G12" t="n">
         <v>2.1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>4.3</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>5.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J12" t="n">
         <v>3.3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
         <v>3.75</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Atletico Nacional Medellin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>America de Cali S.A</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X14" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pumas UNAM</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -670,16 +670,16 @@
         <v>1.64</v>
       </c>
       <c r="G2" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
         <v>6.6</v>
@@ -694,7 +694,7 @@
         <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
@@ -823,10 +823,10 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.26</v>
@@ -835,79 +835,79 @@
         <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
         <v>48</v>
       </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>1.34</v>
+        <v>2.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>1.29</v>
+        <v>2.42</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="P5" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.02</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>5.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,34 +1138,34 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,22 +1210,22 @@
         <v>4.7</v>
       </c>
       <c r="G6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
         <v>1.86</v>
       </c>
       <c r="I6" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1237,13 +1237,13 @@
         <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
         <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
         <v>3.75</v>
@@ -1255,10 +1255,10 @@
         <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1267,7 +1267,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1303,13 +1303,13 @@
         <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="H7" t="n">
         <v>8</v>
@@ -1357,7 +1357,7 @@
         <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1393,7 +1393,7 @@
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1483,7 +1483,7 @@
         <v>1.63</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I8" t="n">
         <v>10.5</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G9" t="n">
         <v>1.58</v>
@@ -1621,46 +1621,46 @@
         <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
         <v>4.8</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
         <v>2.72</v>
@@ -1669,22 +1669,22 @@
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
         <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
         <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>100</v>
@@ -1699,10 +1699,10 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>15.5</v>
@@ -1711,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>8.4</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
         <v>7.2</v>
@@ -1762,7 +1762,7 @@
         <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
@@ -1798,7 +1798,7 @@
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1891,22 +1891,22 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
         <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M11" t="n">
         <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
@@ -1921,10 +1921,10 @@
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
         <v>1.83</v>
@@ -1948,7 +1948,7 @@
         <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
         <v>7.2</v>
@@ -1981,7 +1981,7 @@
         <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
         <v>980</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2155,10 +2155,10 @@
         <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
         <v>3.95</v>
@@ -2182,7 +2182,7 @@
         <v>1.52</v>
       </c>
       <c r="P13" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
         <v>2.58</v>
@@ -2191,7 +2191,7 @@
         <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T13" t="n">
         <v>2.08</v>
@@ -2212,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2224,28 +2224,28 @@
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>110</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
         <v>1.75</v>
@@ -2296,46 +2296,46 @@
         <v>5.3</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
         <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
         <v>2.32</v>
@@ -2356,13 +2356,13 @@
         <v>970</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
         <v>970</v>
@@ -2374,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="n">
         <v>970</v>
@@ -2425,13 +2425,13 @@
         <v>2.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2443,10 +2443,10 @@
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2458,28 +2458,28 @@
         <v>1.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
         <v>32</v>
@@ -2488,46 +2488,46 @@
         <v>80</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
         <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>970</v>
+        <v>1.82</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="I2" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.67</v>
+        <v>2.46</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.42</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,22 +805,22 @@
         <v>3.05</v>
       </c>
       <c r="G3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -829,46 +829,46 @@
         <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V3" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
@@ -877,28 +877,28 @@
         <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="4">
@@ -1075,7 +1075,7 @@
         <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
@@ -1090,16 +1090,16 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>2.42</v>
       </c>
       <c r="O5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
         <v>1.47</v>
@@ -1129,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,10 +1141,10 @@
         <v>6.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,19 +1153,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1219,10 +1219,10 @@
         <v>1.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.45</v>
@@ -1231,28 +1231,28 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.93</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.9</v>
       </c>
       <c r="V6" t="n">
         <v>2.1</v>
@@ -1303,7 +1303,7 @@
         <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="G7" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.16</v>
       </c>
       <c r="S7" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1393,7 +1393,7 @@
         <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
         <v>1.63</v>
       </c>
       <c r="H8" t="n">
-        <v>4.9</v>
+        <v>1.09</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>1.54</v>
       </c>
       <c r="G9" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
         <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K9" t="n">
         <v>4.9</v>
@@ -1636,25 +1636,25 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R9" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
         <v>2.12</v>
@@ -1663,13 +1663,13 @@
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
         <v>60</v>
@@ -1681,7 +1681,7 @@
         <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
         <v>25</v>
@@ -1699,10 +1699,10 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
         <v>15.5</v>
@@ -1714,10 +1714,10 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G10" t="n">
         <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="K10" t="n">
         <v>6.2</v>
@@ -1771,22 +1771,22 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
         <v>1.14</v>
       </c>
       <c r="S10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,10 +1795,10 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
         <v>3.75</v>
@@ -1903,19 +1903,19 @@
         <v>1.57</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
         <v>1.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
@@ -1924,25 +1924,25 @@
         <v>5.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
         <v>75</v>
@@ -1951,40 +1951,40 @@
         <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="n">
         <v>75</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H12" t="n">
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.75</v>
@@ -2050,7 +2050,7 @@
         <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2155,13 +2155,13 @@
         <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
         <v>3.15</v>
@@ -2182,10 +2182,10 @@
         <v>1.52</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="R13" t="n">
         <v>1.2</v>
@@ -2200,10 +2200,10 @@
         <v>1.79</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2212,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2224,28 +2224,28 @@
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>110</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G14" t="n">
         <v>1.75</v>
@@ -2296,13 +2296,13 @@
         <v>5.3</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2317,10 +2317,10 @@
         <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
         <v>1.34</v>
@@ -2329,7 +2329,7 @@
         <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
         <v>1.92</v>
@@ -2341,10 +2341,10 @@
         <v>2.32</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
         <v>55</v>
@@ -2353,43 +2353,43 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
         <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>100</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
         <v>130</v>
@@ -2455,19 +2455,19 @@
         <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
         <v>1.33</v>
@@ -2482,10 +2482,10 @@
         <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
         <v>11.5</v>
@@ -2497,7 +2497,7 @@
         <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF15" t="n">
         <v>14.5</v>
@@ -2509,25 +2509,25 @@
         <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
         <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="H2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>3.75</v>
@@ -688,40 +688,40 @@
         <v>1.57</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O2" t="n">
         <v>1.56</v>
       </c>
       <c r="P2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="R2" t="n">
         <v>1.17</v>
       </c>
       <c r="S2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V2" t="n">
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X2" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>18.5</v>
@@ -733,25 +733,25 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J3" t="n">
         <v>3.5</v>
@@ -820,7 +820,7 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -829,10 +829,10 @@
         <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
         <v>1.76</v>
@@ -841,34 +841,34 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T3" t="n">
         <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X3" t="n">
         <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z3" t="n">
         <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
@@ -877,13 +877,13 @@
         <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -892,10 +892,10 @@
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -949,7 +949,7 @@
         <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
@@ -958,7 +958,7 @@
         <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>2.7</v>
@@ -976,7 +976,7 @@
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
@@ -985,7 +985,7 @@
         <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
         <v>1.38</v>
@@ -994,7 +994,7 @@
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="G5" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P5" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S5" t="n">
         <v>5.1</v>
@@ -1117,19 +1117,19 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,28 +1141,28 @@
         <v>6.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
         <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1213,7 +1213,7 @@
         <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="I6" t="n">
         <v>1.9</v>
@@ -1222,25 +1222,25 @@
         <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
         <v>1.31</v>
@@ -1249,7 +1249,7 @@
         <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
         <v>1.93</v>
@@ -1258,13 +1258,13 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
         <v>11</v>
@@ -1303,7 +1303,7 @@
         <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>7.6</v>
+        <v>17.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>2.06</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>2.92</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.04</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1432,10 +1432,10 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1480,19 +1480,19 @@
         <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.54</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.55</v>
       </c>
       <c r="H9" t="n">
         <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
         <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>1.32</v>
@@ -1639,37 +1639,37 @@
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
         <v>1.68</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
         <v>60</v>
@@ -1678,7 +1678,7 @@
         <v>210</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1696,16 +1696,16 @@
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
         <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
         <v>32</v>
@@ -1714,7 +1714,7 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO9" t="n">
         <v>95</v>
@@ -1747,64 +1747,64 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.1</v>
       </c>
-      <c r="I10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>1.91</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>2.16</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,34 +1813,34 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
         <v>2.54</v>
@@ -1891,7 +1891,7 @@
         <v>3.55</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J11" t="n">
         <v>3.05</v>
@@ -1903,16 +1903,16 @@
         <v>1.57</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
         <v>2.64</v>
@@ -1924,7 +1924,7 @@
         <v>5.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U11" t="n">
         <v>1.82</v>
@@ -1957,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
         <v>13.5</v>
@@ -1966,7 +1966,7 @@
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>85</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>1.56</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
         <v>2.34</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O13" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="R13" t="n">
         <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2227,7 +2227,7 @@
         <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
         <v>980</v>
@@ -2254,7 +2254,7 @@
         <v>220</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2293,10 +2293,10 @@
         <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2305,7 +2305,7 @@
         <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2323,16 +2323,16 @@
         <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
         <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
         <v>1.19</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2365,16 +2365,16 @@
         <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
@@ -2386,7 +2386,7 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2461,19 +2461,19 @@
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T15" t="n">
         <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
@@ -2497,7 +2497,7 @@
         <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
         <v>14.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -679,7 +679,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>3.75</v>
@@ -688,10 +688,10 @@
         <v>1.57</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O2" t="n">
         <v>1.56</v>
@@ -700,7 +700,7 @@
         <v>1.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R2" t="n">
         <v>1.17</v>
@@ -709,7 +709,7 @@
         <v>5.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>1.58</v>
@@ -736,10 +736,10 @@
         <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H3" t="n">
         <v>2.24</v>
@@ -814,19 +814,19 @@
         <v>2.46</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.26</v>
@@ -835,31 +835,31 @@
         <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S3" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="V3" t="n">
         <v>1.68</v>
       </c>
       <c r="W3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
         <v>20</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
@@ -877,37 +877,37 @@
         <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO3" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
         <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -970,13 +970,13 @@
         <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
@@ -985,16 +985,16 @@
         <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I5" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
         <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="O5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
         <v>1.49</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
         <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
         <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>13.5</v>
@@ -1207,40 +1207,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
         <v>1.31</v>
@@ -1249,16 +1249,16 @@
         <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1267,13 +1267,13 @@
         <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
@@ -1285,7 +1285,7 @@
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
@@ -1297,7 +1297,7 @@
         <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="n">
         <v>75</v>
@@ -1309,10 +1309,10 @@
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
         <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
         <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="U7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,22 +1420,22 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G8" t="n">
         <v>1.62</v>
@@ -1486,10 +1486,10 @@
         <v>5.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
@@ -1510,7 +1510,7 @@
         <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
@@ -1636,13 +1636,13 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
         <v>1.68</v>
@@ -1651,10 +1651,10 @@
         <v>1.54</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -1663,19 +1663,19 @@
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
         <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AB9" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>80</v>
@@ -1711,13 +1711,13 @@
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
         <v>6.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1747,64 +1747,64 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.45</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.15</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W10" t="n">
         <v>2.06</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,35 +1813,35 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK10" t="n">
         <v>21</v>
       </c>
-      <c r="AK10" t="n">
-        <v>22</v>
-      </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
         <v>3.65</v>
@@ -1897,43 +1897,43 @@
         <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R11" t="n">
         <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
         <v>1.82</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
         <v>8.800000000000001</v>
@@ -1942,7 +1942,7 @@
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
         <v>75</v>
@@ -1957,7 +1957,7 @@
         <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="AF11" t="n">
         <v>13.5</v>
@@ -1978,10 +1978,10 @@
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
         <v>38</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
         <v>2.08</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="U13" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AN13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H14" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
         <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2365,7 +2365,7 @@
         <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
         <v>12.5</v>
@@ -2377,7 +2377,7 @@
         <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AK14" t="n">
         <v>980</v>
@@ -2389,10 +2389,10 @@
         <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2428,13 +2428,13 @@
         <v>2.14</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2455,22 +2455,22 @@
         <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
         <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W15" t="n">
         <v>1.87</v>
@@ -2479,7 +2479,7 @@
         <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
@@ -2491,7 +2491,7 @@
         <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>16.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G2" t="n">
         <v>1.84</v>
@@ -682,16 +682,16 @@
         <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.57</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O2" t="n">
         <v>1.56</v>
@@ -700,7 +700,7 @@
         <v>1.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R2" t="n">
         <v>1.17</v>
@@ -709,7 +709,7 @@
         <v>5.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="U2" t="n">
         <v>1.58</v>
@@ -724,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
         <v>32</v>
@@ -751,13 +751,13 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>28</v>
@@ -808,16 +808,16 @@
         <v>3.45</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -832,28 +832,28 @@
         <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.41</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.4</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -865,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="n">
         <v>15.5</v>
@@ -880,34 +880,34 @@
         <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
         <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
         <v>2.5</v>
@@ -952,46 +952,46 @@
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>2.16</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V4" t="n">
         <v>1.48</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1000,13 +1000,13 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>7.2</v>
@@ -1084,7 +1084,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>3.6</v>
@@ -1093,7 +1093,7 @@
         <v>1.49</v>
       </c>
       <c r="M5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
         <v>2.44</v>
@@ -1111,49 +1111,49 @@
         <v>1.17</v>
       </c>
       <c r="S5" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
         <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="X5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>42</v>
@@ -1162,22 +1162,22 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>20</v>
       </c>
-      <c r="AK5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>21</v>
-      </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6">
@@ -1213,16 +1213,16 @@
         <v>4.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.44</v>
@@ -1237,25 +1237,25 @@
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
         <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U6" t="n">
         <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W6" t="n">
         <v>1.26</v>
@@ -1273,7 +1273,7 @@
         <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
@@ -1288,7 +1288,7 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
         <v>22</v>
@@ -1300,7 +1300,7 @@
         <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
         <v>80</v>
@@ -1312,7 +1312,7 @@
         <v>85</v>
       </c>
       <c r="AO6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,40 +1366,40 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
         <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V7" t="n">
         <v>1.05</v>
       </c>
       <c r="W7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC7" t="n">
         <v>14</v>
@@ -1426,16 +1426,16 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
@@ -1495,16 +1495,16 @@
         <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
         <v>1.88</v>
@@ -1513,76 +1513,76 @@
         <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.54</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.55</v>
-      </c>
       <c r="H9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
         <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.32</v>
@@ -1642,19 +1642,19 @@
         <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -1663,22 +1663,22 @@
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
         <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1690,16 +1690,16 @@
         <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
         <v>14.5</v>
@@ -1711,13 +1711,13 @@
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>6.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>4.7</v>
@@ -1759,55 +1759,55 @@
         <v>5.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
         <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
         <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
         <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1819,37 +1819,37 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>3.05</v>
@@ -1906,43 +1906,43 @@
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P11" t="n">
         <v>1.55</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U11" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
         <v>75</v>
@@ -1957,10 +1957,10 @@
         <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
@@ -1972,13 +1972,13 @@
         <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>190</v>
@@ -1987,7 +1987,7 @@
         <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H12" t="n">
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2035,94 +2035,94 @@
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q12" t="n">
         <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
         <v>3.55</v>
@@ -2164,10 +2164,10 @@
         <v>3.7</v>
       </c>
       <c r="J13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.45</v>
       </c>
       <c r="L13" t="n">
         <v>1.56</v>
@@ -2179,13 +2179,13 @@
         <v>2.66</v>
       </c>
       <c r="O13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R13" t="n">
         <v>1.19</v>
@@ -2194,7 +2194,7 @@
         <v>5.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U13" t="n">
         <v>1.71</v>
@@ -2203,16 +2203,16 @@
         <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y13" t="n">
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
         <v>80</v>
@@ -2221,7 +2221,7 @@
         <v>7.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
         <v>16.5</v>
@@ -2233,13 +2233,13 @@
         <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
         <v>34</v>
@@ -2254,7 +2254,7 @@
         <v>190</v>
       </c>
       <c r="AN13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="H14" t="n">
         <v>5.6</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
         <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2377,7 +2377,7 @@
         <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
         <v>980</v>
@@ -2389,16 +2389,16 @@
         <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,120 +2413,255 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pumas UNAM</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.05</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>4.2</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="O16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="Q16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.44</v>
       </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="S16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.22</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V16" t="n">
         <v>1.36</v>
       </c>
-      <c r="W15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="W16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X16" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y16" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE16" t="n">
         <v>980</v>
       </c>
-      <c r="AA15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AF16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG16" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AH16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI16" t="n">
         <v>980</v>
       </c>
-      <c r="AF15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AJ16" t="n">
         <v>980</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL16" t="n">
         <v>980</v>
       </c>
-      <c r="AK15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AM16" t="n">
         <v>85</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO16" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -676,10 +676,10 @@
         <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -691,7 +691,7 @@
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O2" t="n">
         <v>1.56</v>
@@ -706,22 +706,22 @@
         <v>1.17</v>
       </c>
       <c r="S2" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="U2" t="n">
         <v>1.58</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
         <v>2.18</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y2" t="n">
         <v>16</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
         <v>8.6</v>
@@ -763,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>2.26</v>
       </c>
       <c r="I3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
         <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -862,7 +862,7 @@
         <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>80</v>
@@ -871,13 +871,13 @@
         <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
         <v>46</v>
@@ -886,10 +886,10 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
         <v>470</v>
@@ -898,16 +898,16 @@
         <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AM3" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
         <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
         <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1000,7 +1000,7 @@
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H5" t="n">
         <v>7.2</v>
       </c>
       <c r="I5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.49</v>
@@ -1099,7 +1099,7 @@
         <v>2.44</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
         <v>1.49</v>
@@ -1123,13 +1123,13 @@
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
         <v>70</v>
@@ -1138,22 +1138,22 @@
         <v>420</v>
       </c>
       <c r="AB5" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>36</v>
       </c>
       <c r="AE5" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
         <v>42</v>
@@ -1177,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="AO5" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="I6" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
         <v>10.5</v>
@@ -1282,34 +1282,34 @@
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.27</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>21</v>
+      </c>
+      <c r="I7" t="n">
+        <v>28</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.34</v>
       </c>
-      <c r="H7" t="n">
-        <v>17</v>
-      </c>
-      <c r="I7" t="n">
-        <v>21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="S7" t="n">
         <v>3.3</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.65</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="W7" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>55</v>
@@ -1408,34 +1408,34 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG7" t="n">
         <v>14</v>
       </c>
-      <c r="AD7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G8" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H8" t="n">
         <v>6.8</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
         <v>1.14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="X8" t="n">
         <v>25</v>
@@ -1552,10 +1552,10 @@
         <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AG8" t="n">
         <v>40</v>
@@ -1564,7 +1564,7 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
         <v>180</v>
@@ -1573,10 +1573,10 @@
         <v>70</v>
       </c>
       <c r="AL8" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>29</v>
@@ -1615,22 +1615,22 @@
         <v>1.53</v>
       </c>
       <c r="G9" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
         <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1648,7 +1648,7 @@
         <v>1.69</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S9" t="n">
         <v>2.74</v>
@@ -1666,10 +1666,10 @@
         <v>2.84</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="n">
         <v>60</v>
@@ -1684,7 +1684,7 @@
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>90</v>
@@ -1750,46 +1750,46 @@
         <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
         <v>1.98</v>
@@ -1798,7 +1798,7 @@
         <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
         <v>15.5</v>
@@ -1807,7 +1807,7 @@
         <v>18</v>
       </c>
       <c r="Z10" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>21</v>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G11" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>3.05</v>
@@ -1906,16 +1906,16 @@
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.72</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.74</v>
       </c>
       <c r="R11" t="n">
         <v>1.19</v>
@@ -1924,7 +1924,7 @@
         <v>5.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U11" t="n">
         <v>1.81</v>
@@ -1933,7 +1933,7 @@
         <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X11" t="n">
         <v>8.4</v>
@@ -1948,7 +1948,7 @@
         <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC11" t="n">
         <v>6.8</v>
@@ -1978,7 +1978,7 @@
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
         <v>190</v>
@@ -2017,109 +2017,109 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
         <v>2.42</v>
       </c>
       <c r="H13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>3.7</v>
@@ -2167,22 +2167,22 @@
         <v>3.2</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q13" t="n">
         <v>2.68</v>
@@ -2191,13 +2191,13 @@
         <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T13" t="n">
         <v>2.18</v>
       </c>
       <c r="U13" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
         <v>1.37</v>
@@ -2212,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
         <v>80</v>
@@ -2221,22 +2221,22 @@
         <v>7.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
         <v>90</v>
@@ -2257,7 +2257,7 @@
         <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="H14" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2314,7 +2314,7 @@
         <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
         <v>1.96</v>
@@ -2329,22 +2329,22 @@
         <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
         <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z14" t="n">
         <v>55</v>
@@ -2365,34 +2365,34 @@
         <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
         <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2422,46 +2422,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>1.32</v>
+        <v>2.84</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>1.32</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.21</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S15" t="n">
-        <v>1.21</v>
+        <v>2.66</v>
       </c>
       <c r="T15" t="n">
         <v>1.04</v>
@@ -2470,10 +2470,10 @@
         <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,82 +2557,82 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
         <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
         <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U16" t="n">
         <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X16" t="n">
         <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
         <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
         <v>14.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.71</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>7.6</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.57</v>
+        <v>1.03</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>5.7</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="W2" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="X2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.82</v>
+        <v>1.85</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.64</v>
+        <v>1.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.98</v>
+        <v>9.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,40 +1003,40 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ4" t="n">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
@@ -1072,82 +1072,82 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
         <v>1.76</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.44</v>
+        <v>1.05</v>
       </c>
       <c r="O5" t="n">
         <v>1.6</v>
       </c>
       <c r="P5" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="n">
         <v>420</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AF5" t="n">
         <v>8.199999999999999</v>
@@ -1156,28 +1156,28 @@
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AJ5" t="n">
         <v>17.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6">
@@ -1207,88 +1207,88 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.94</v>
       </c>
-      <c r="V6" t="n">
-        <v>2.12</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC6" t="n">
         <v>7.8</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
         <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1297,22 +1297,22 @@
         <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>1.06</v>
       </c>
       <c r="T7" t="n">
-        <v>2.92</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,22 +1420,22 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1483,55 +1483,55 @@
         <v>1.61</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>870</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
         <v>980</v>
@@ -1543,34 +1543,34 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
@@ -1618,67 +1618,67 @@
         <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.34</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>1.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
         <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
         <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1687,37 +1687,37 @@
         <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG9" t="n">
         <v>9.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="n">
         <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>32</v>
       </c>
       <c r="AM9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO9" t="n">
         <v>110</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>5.8</v>
+        <v>980</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>1.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="S10" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
         <v>42</v>
       </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="G11" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
         <v>3.05</v>
@@ -1900,19 +1900,19 @@
         <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O11" t="n">
         <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
         <v>2.72</v>
@@ -1921,22 +1921,22 @@
         <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -1954,7 +1954,7 @@
         <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
         <v>60</v>
@@ -1966,10 +1966,10 @@
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
@@ -2017,109 +2017,109 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>4.8</v>
+        <v>980</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>1.24</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="T12" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>19.5</v>
+        <v>85</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2170,7 +2170,7 @@
         <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2182,34 +2182,34 @@
         <v>1.56</v>
       </c>
       <c r="P13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="R13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="T13" t="n">
         <v>2.18</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
         <v>8.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z13" t="n">
         <v>23</v>
@@ -2221,10 +2221,10 @@
         <v>7.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
         <v>60</v>
@@ -2233,7 +2233,7 @@
         <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
         <v>28</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="G14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>1.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
         <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
         <v>980</v>
       </c>
-      <c r="AE14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11</v>
-      </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,46 +2422,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>1.03</v>
       </c>
       <c r="K15" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.04</v>
       </c>
-      <c r="N15" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.22</v>
-      </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="T15" t="n">
         <v>1.04</v>
@@ -2470,10 +2470,10 @@
         <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G16" t="n">
         <v>2.12</v>
@@ -2566,103 +2566,103 @@
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
         <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>16</v>
-      </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.86</v>
       </c>
-      <c r="K2" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="N2" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.63</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>6.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="V2" t="n">
-        <v>1.09</v>
+        <v>1.34</v>
       </c>
       <c r="W2" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>6.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.04</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="n">
         <v>42</v>
       </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="H4" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>9.4</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
         <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>1.05</v>
+        <v>2.42</v>
       </c>
       <c r="O5" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AA5" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF5" t="n">
         <v>11</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AO5" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -1213,106 +1213,106 @@
         <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>2.86</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="W6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
         <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.1</v>
+        <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K7" t="n">
-        <v>29</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.06</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>1.06</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,34 +1408,34 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>870</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>1.05</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>450</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
         <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -1612,61 +1612,61 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G9" t="n">
         <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.05</v>
+        <v>2.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>26</v>
@@ -1675,34 +1675,34 @@
         <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
         <v>9.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AH9" t="n">
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -1711,13 +1711,13 @@
         <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>7.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>1.05</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,64 +1882,64 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="G11" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.05</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="O11" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="R11" t="n">
         <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z11" t="n">
         <v>22</v>
@@ -1948,7 +1948,7 @@
         <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC11" t="n">
         <v>6.8</v>
@@ -1966,10 +1966,10 @@
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>480</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
@@ -1981,13 +1981,13 @@
         <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -2017,109 +2017,109 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>980</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.24</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="n">
-        <v>330</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
         <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2170,58 +2170,58 @@
         <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="O13" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S13" t="n">
         <v>5.6</v>
       </c>
       <c r="T13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X13" t="n">
         <v>8.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
         <v>7.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
         <v>16.5</v>
@@ -2230,31 +2230,31 @@
         <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>90</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
         <v>190</v>
       </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
         <v>85</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>1.05</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,106 +2557,106 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
-        <v>1.05</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
         <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
         <v>14</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -667,34 +667,34 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="L2" t="n">
         <v>1.65</v>
       </c>
       <c r="M2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -706,46 +706,46 @@
         <v>1.16</v>
       </c>
       <c r="S2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB2" t="n">
         <v>7.4</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
         <v>6.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
@@ -754,7 +754,7 @@
         <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
         <v>40</v>
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>46</v>
       </c>
       <c r="AO2" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="n">
         <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I3" t="n">
         <v>2.42</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="V3" t="n">
         <v>1.7</v>
@@ -856,7 +856,7 @@
         <v>1.41</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -886,28 +886,28 @@
         <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AK3" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
         <v>120</v>
       </c>
       <c r="AM3" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
         <v>2.72</v>
@@ -1000,7 +1000,7 @@
         <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
@@ -1012,7 +1012,7 @@
         <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
         <v>16</v>
@@ -1030,7 +1030,7 @@
         <v>40</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
         <v>55</v>
@@ -1075,28 +1075,28 @@
         <v>1.97</v>
       </c>
       <c r="G5" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O5" t="n">
         <v>1.65</v>
@@ -1105,52 +1105,52 @@
         <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S5" t="n">
         <v>6.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y5" t="n">
         <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="AE5" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
@@ -1159,10 +1159,10 @@
         <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
         <v>32</v>
@@ -1174,7 +1174,7 @@
         <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
         <v>250</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
         <v>4.3</v>
@@ -1225,22 +1225,22 @@
         <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="R6" t="n">
         <v>1.23</v>
@@ -1264,7 +1264,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z6" t="n">
         <v>11.5</v>
@@ -1309,10 +1309,10 @@
         <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="AO6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1348,10 +1348,10 @@
         <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="J7" t="n">
         <v>4.3</v>
@@ -1384,13 +1384,13 @@
         <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
         <v>3.3</v>
@@ -1408,37 +1408,37 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S8" t="n">
         <v>3.7</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.54</v>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -1651,7 +1651,7 @@
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="T9" t="n">
         <v>1.85</v>
@@ -1675,16 +1675,16 @@
         <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
         <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>90</v>
@@ -1693,13 +1693,13 @@
         <v>9.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH9" t="n">
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -1756,13 +1756,13 @@
         <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1777,13 +1777,13 @@
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q10" t="n">
         <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
         <v>3.75</v>
@@ -1792,10 +1792,10 @@
         <v>1.92</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
         <v>2.06</v>
@@ -1807,7 +1807,7 @@
         <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1843,7 +1843,7 @@
         <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -1921,31 +1921,31 @@
         <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T11" t="n">
         <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AB11" t="n">
         <v>7.4</v>
@@ -1987,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="AO11" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
@@ -2041,19 +2041,19 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
         <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
         <v>4.1</v>
@@ -2068,7 +2068,7 @@
         <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
         <v>3.2</v>
@@ -2170,16 +2170,16 @@
         <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
         <v>1.58</v>
@@ -2200,10 +2200,10 @@
         <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X13" t="n">
         <v>8.6</v>
@@ -2239,7 +2239,7 @@
         <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
         <v>32</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G14" t="n">
         <v>1.69</v>
@@ -2317,7 +2317,7 @@
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q14" t="n">
         <v>1.89</v>
@@ -2329,10 +2329,10 @@
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
@@ -2341,7 +2341,7 @@
         <v>2.44</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2431,10 +2431,10 @@
         <v>3.95</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
         <v>4.9</v>
@@ -2470,7 +2470,7 @@
         <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
         <v>1.92</v>
@@ -2560,7 +2560,7 @@
         <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
@@ -2572,7 +2572,7 @@
         <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
@@ -2608,10 +2608,10 @@
         <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
         <v>16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -667,40 +667,40 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G2" t="n">
         <v>2.54</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.56</v>
-      </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.7</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.82</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>1.16</v>
@@ -715,49 +715,49 @@
         <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
         <v>6.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
         <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
         <v>40</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO2" t="n">
         <v>140</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="I3" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -832,31 +832,31 @@
         <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="W3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -868,19 +868,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
         <v>14.5</v>
@@ -889,25 +889,25 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
         <v>120</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN3" t="n">
         <v>42</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G4" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>3.55</v>
@@ -967,13 +967,13 @@
         <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
         <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
         <v>3.8</v>
@@ -985,10 +985,10 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="X4" t="n">
         <v>12.5</v>
@@ -1000,7 +1000,7 @@
         <v>65</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
@@ -1012,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
@@ -1027,22 +1027,22 @@
         <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
         <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -1102,7 +1102,7 @@
         <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q5" t="n">
         <v>2.94</v>
@@ -1114,16 +1114,16 @@
         <v>6.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X5" t="n">
         <v>7.2</v>
@@ -1132,37 +1132,37 @@
         <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
         <v>200</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
         <v>32</v>
@@ -1174,10 +1174,10 @@
         <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
         <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.54</v>
@@ -1234,13 +1234,13 @@
         <v>2.92</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="R6" t="n">
         <v>1.23</v>
@@ -1252,16 +1252,16 @@
         <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
         <v>7.2</v>
@@ -1309,10 +1309,10 @@
         <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1375,7 +1375,7 @@
         <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>1.31</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="G8" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
         <v>1.45</v>
@@ -1501,16 +1501,16 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
         <v>1.34</v>
@@ -1519,7 +1519,7 @@
         <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1528,22 +1528,22 @@
         <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -1558,7 +1558,7 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>17</v>
@@ -1567,13 +1567,13 @@
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.54</v>
       </c>
       <c r="G9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -1624,10 +1624,10 @@
         <v>7.2</v>
       </c>
       <c r="J9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.34</v>
@@ -1645,25 +1645,25 @@
         <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
         <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
         <v>1.85</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -1675,7 +1675,7 @@
         <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AB9" t="n">
         <v>9</v>
@@ -1699,7 +1699,7 @@
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -1717,7 +1717,7 @@
         <v>7.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1786,7 +1786,7 @@
         <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T10" t="n">
         <v>1.92</v>
@@ -1795,7 +1795,7 @@
         <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
         <v>2.06</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
@@ -1894,10 +1894,10 @@
         <v>3.8</v>
       </c>
       <c r="J11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K11" t="n">
         <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.05</v>
       </c>
       <c r="L11" t="n">
         <v>1.66</v>
@@ -1906,10 +1906,10 @@
         <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P11" t="n">
         <v>1.53</v>
@@ -1933,7 +1933,7 @@
         <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
@@ -1945,7 +1945,7 @@
         <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
         <v>7.4</v>
@@ -1984,7 +1984,7 @@
         <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO11" t="n">
         <v>230</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G12" t="n">
         <v>2.06</v>
@@ -2176,7 +2176,7 @@
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O13" t="n">
         <v>1.55</v>
@@ -2185,7 +2185,7 @@
         <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="R13" t="n">
         <v>1.2</v>
@@ -2293,7 +2293,7 @@
         <v>1.69</v>
       </c>
       <c r="H14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I14" t="n">
         <v>6.6</v>
@@ -2320,7 +2320,7 @@
         <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
@@ -2329,7 +2329,7 @@
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
         <v>1.96</v>
@@ -2344,7 +2344,7 @@
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2380,7 +2380,7 @@
         <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
@@ -2563,10 +2563,10 @@
         <v>2.12</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -670,22 +670,22 @@
         <v>2.52</v>
       </c>
       <c r="G2" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I2" t="n">
         <v>4.3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.4</v>
       </c>
       <c r="J2" t="n">
         <v>2.68</v>
       </c>
       <c r="K2" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="L2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -697,82 +697,82 @@
         <v>1.65</v>
       </c>
       <c r="P2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
         <v>1.65</v>
       </c>
       <c r="X2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>910</v>
+      </c>
+      <c r="AB2" t="n">
         <v>7</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
         <v>6.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="n">
         <v>120</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>85</v>
-      </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AO2" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -808,13 +808,13 @@
         <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
         <v>2.34</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>3.75</v>
@@ -826,7 +826,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.26</v>
@@ -844,40 +844,40 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
         <v>2.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AB3" t="n">
         <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>25</v>
@@ -889,22 +889,22 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ3" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AO3" t="n">
         <v>14.5</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="W4" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
         <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G5" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.64</v>
@@ -1102,28 +1102,28 @@
         <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
         <v>7.2</v>
@@ -1132,31 +1132,31 @@
         <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA5" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
         <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
         <v>200</v>
@@ -1174,10 +1174,10 @@
         <v>400</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G6" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.3</v>
       </c>
       <c r="H6" t="n">
         <v>2.12</v>
       </c>
       <c r="I6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1237,7 +1237,7 @@
         <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
         <v>2.52</v>
@@ -1246,19 +1246,19 @@
         <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
         <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
@@ -1276,7 +1276,7 @@
         <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
@@ -1309,10 +1309,10 @@
         <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H7" t="n">
         <v>13.5</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.45</v>
@@ -1507,43 +1507,43 @@
         <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
         <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
@@ -1552,10 +1552,10 @@
         <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1567,10 +1567,10 @@
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>110</v>
@@ -1579,10 +1579,10 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1645,10 +1645,10 @@
         <v>2.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S9" t="n">
         <v>2.88</v>
@@ -1663,7 +1663,7 @@
         <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -1714,10 +1714,10 @@
         <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
         <v>2.52</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>2.06</v>
@@ -2032,7 +2032,7 @@
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.48</v>
@@ -2056,7 +2056,7 @@
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
         <v>1.89</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.59</v>
@@ -2176,7 +2176,7 @@
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O13" t="n">
         <v>1.55</v>
@@ -2200,10 +2200,10 @@
         <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X13" t="n">
         <v>8.6</v>
@@ -2212,10 +2212,10 @@
         <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="n">
         <v>7.4</v>
@@ -2224,10 +2224,10 @@
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
         <v>12</v>
@@ -2239,7 +2239,7 @@
         <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ13" t="n">
         <v>32</v>
@@ -2257,7 +2257,7 @@
         <v>32</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G14" t="n">
         <v>1.69</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
         <v>4.4</v>
@@ -2320,19 +2320,19 @@
         <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
         <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
@@ -2344,7 +2344,7 @@
         <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2470,7 +2470,7 @@
         <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
         <v>1.92</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
         <v>2.12</v>
@@ -2617,10 +2617,10 @@
         <v>16</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
@@ -2644,13 +2644,13 @@
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
         <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>32</v>
@@ -2659,7 +2659,7 @@
         <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO16" t="n">
         <v>36</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.52</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>2.56</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>2.36</v>
       </c>
       <c r="J2" t="n">
-        <v>2.68</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>2.76</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>6.4</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.34</v>
+        <v>1.69</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.3</v>
+        <v>1.74</v>
       </c>
       <c r="W2" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="X2" t="n">
-        <v>6.6</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>16</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA2" t="n">
-        <v>910</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="n">
         <v>34</v>
       </c>
-      <c r="AI2" t="n">
-        <v>170</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AO2" t="n">
-        <v>600</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Bihor Oradea</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>2.86</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="I3" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.75</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO3" t="n">
         <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>14.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,78 +923,78 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bihor Oradea</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>7.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>2.48</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>2.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>2.54</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.82</v>
+        <v>2.34</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,43 +1003,43 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>8.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>200</v>
+        <v>18.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
-        <v>140</v>
+        <v>490</v>
       </c>
       <c r="AN4" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.88</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.87</v>
       </c>
       <c r="W5" t="n">
-        <v>2.04</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>50</v>
+        <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.8</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
         <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>280</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.12</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.52</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="V6" t="n">
-        <v>1.87</v>
+        <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.31</v>
+        <v>3.3</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.2</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>100</v>
-      </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,118 +1333,118 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>13.5</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>17.5</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="W7" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM7" t="n">
         <v>130</v>
       </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN7" t="n">
-        <v>8.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.56</v>
+        <v>1.57</v>
       </c>
       <c r="G8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W8" t="n">
         <v>2.74</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH8" t="n">
         <v>21</v>
       </c>
-      <c r="AA8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AI8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN8" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>55</v>
-      </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:10:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>2.32</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AA9" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC9" t="n">
         <v>9</v>
       </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>22</v>
       </c>
-      <c r="AI9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>14</v>
-      </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
       <c r="G10" t="n">
-        <v>1.94</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="P10" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="S10" t="n">
-        <v>3.65</v>
+        <v>6.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>2.26</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.52</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="AJ11" t="n">
         <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
         <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="I12" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="V12" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.26</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.85</v>
       </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S13" t="n">
         <v>3.25</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5.6</v>
-      </c>
       <c r="T13" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="X13" t="n">
-        <v>8.6</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,75 +2273,75 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="H14" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="W14" t="n">
-        <v>2.44</v>
+        <v>1.95</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2377,19 +2377,19 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,256 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Pumas UNAM</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Lithuanian 1 Lyga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>FK Sveikata</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>FK Siauliai II</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="H2" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="I2" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.03</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Danish 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bihor Oradea</t>
+          <t>Hvidovre</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="I3" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.41</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.38</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Bihor Oradea</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.68</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.13</v>
-      </c>
       <c r="W4" t="n">
-        <v>2.34</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.1</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>1.64</v>
       </c>
       <c r="H5" t="n">
-        <v>2.12</v>
+        <v>8.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.14</v>
+        <v>9.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.76</v>
       </c>
       <c r="U5" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.87</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.31</v>
+        <v>2.56</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG5" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK5" t="n">
         <v>27</v>
       </c>
-      <c r="AG5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>70</v>
-      </c>
       <c r="AL5" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>570</v>
       </c>
       <c r="AN5" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.43</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>16</v>
+        <v>2.16</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.46</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.39</v>
-      </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.06</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>3.3</v>
+        <v>1.31</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>36</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD6" t="n">
         <v>11</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK6" t="n">
         <v>65</v>
       </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.46</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.61</v>
       </c>
       <c r="V7" t="n">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>3.15</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>17</v>
-      </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.88</v>
+        <v>3.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>2.74</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AA8" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK8" t="n">
         <v>24</v>
       </c>
-      <c r="AE8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15</v>
-      </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.4</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.82</v>
+        <v>1.56</v>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO9" t="n">
         <v>95</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>1.93</v>
       </c>
       <c r="H10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.6</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.98</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="P10" t="n">
-        <v>1.49</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.98</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC10" t="n">
         <v>9</v>
       </c>
-      <c r="Z10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AD10" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="P11" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="U11" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
         <v>85</v>
       </c>
-      <c r="AA11" t="n">
-        <v>900</v>
-      </c>
       <c r="AB11" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>240</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="G12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2.28</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>2.02</v>
       </c>
       <c r="X12" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN12" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>32</v>
-      </c>
       <c r="AO12" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>America de Cali S.A</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.68</v>
       </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.99</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>18.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,78 +2273,78 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CD Motagua</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2365,10 +2365,10 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2377,19 +2377,19 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,136 +2398,271 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CD Motagua</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Olancho</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2025-11-20</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Pachuca</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Pumas UNAM</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F16" t="n">
         <v>2.16</v>
       </c>
-      <c r="H15" t="n">
+      <c r="G16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.6</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="K16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.37</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="W16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN16" t="n">
         <v>18</v>
       </c>
-      <c r="Y15" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1000</v>
+      <c r="AO16" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lithuanian 1 Lyga</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Sveikata</t>
+          <t>MC Oran</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FK Siauliai II</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>980</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.18</v>
+        <v>9.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>340</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>1.46</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.01</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
+        <v>140</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.01</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.03</v>
-      </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>130</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>1.45</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Danish 1st Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hvidovre</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>1.72</v>
       </c>
       <c r="H3" t="n">
-        <v>2.18</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.24</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41</v>
+        <v>3.45</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>2.34</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -883,37 +883,37 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>4.6</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bihor Oradea</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.94</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>1.68</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>12</v>
       </c>
-      <c r="AE4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Club Atletico Tembetary</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="H5" t="n">
-        <v>8.6</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.38</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.76</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="n">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>2.56</v>
+        <v>1.86</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>570</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>1.59</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.16</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.52</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.24</v>
-      </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>1.31</v>
+        <v>2.66</v>
       </c>
       <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF6" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AG6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN6" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>120</v>
-      </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.44</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
         <v>11.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.58</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>2.92</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.74</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>3.55</v>
+        <v>2.34</v>
       </c>
       <c r="O8" t="n">
-        <v>1.37</v>
+        <v>1.71</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>3.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>3.85</v>
+        <v>7.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL8" t="n">
         <v>85</v>
       </c>
-      <c r="AK8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>110</v>
-      </c>
       <c r="AM8" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO8" t="n">
         <v>120</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.56</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>1.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD9" t="n">
         <v>22</v>
       </c>
-      <c r="Y9" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.34</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD10" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.94</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.96</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.16</v>
       </c>
-      <c r="N11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.36</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.63</v>
+        <v>2.6</v>
       </c>
       <c r="X11" t="n">
-        <v>7.2</v>
+        <v>15.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>110</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>48</v>
+        <v>9.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1.96</v>
       </c>
       <c r="G12" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.41</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,17 +2138,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2158,511 +2158,106 @@
         <v>2.26</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W13" t="n">
         <v>1.79</v>
       </c>
       <c r="X13" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
         <v>26</v>
       </c>
-      <c r="AA13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
+      <c r="AL13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN13" t="n">
         <v>22</v>
       </c>
-      <c r="AI13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>27</v>
-      </c>
       <c r="AO13" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X14" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Pumas UNAM</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,108 +653,108 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MC Oran</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.45</v>
+        <v>10.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>9.6</v>
+        <v>1.36</v>
       </c>
       <c r="I2" t="n">
-        <v>340</v>
+        <v>1.37</v>
       </c>
       <c r="J2" t="n">
-        <v>1.46</v>
+        <v>5.7</v>
       </c>
       <c r="K2" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>140</v>
+        <v>1.19</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="S2" t="n">
-        <v>130</v>
+        <v>1.82</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>3.7</v>
       </c>
       <c r="W2" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="X2" t="n">
-        <v>1.45</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,22 +763,22 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Boyaca Patriotas</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="G3" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
-        <v>3.45</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.65</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.6</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>11.5</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>8.4</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.800000000000001</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.46</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>2.84</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>2.36</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="P4" t="n">
-        <v>1.77</v>
+        <v>1.43</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="U4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.62</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="Y4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>26</v>
       </c>
-      <c r="Z4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>38</v>
-      </c>
       <c r="AI4" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Atletico Tembetary</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="G5" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
@@ -1090,94 +1090,94 @@
         <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA5" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN5" t="n">
         <v>18</v>
       </c>
-      <c r="AE5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>22</v>
-      </c>
       <c r="AO5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.59</v>
+        <v>2.22</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>3.85</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.35</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.17</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.66</v>
+        <v>1.81</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="n">
         <v>55</v>
       </c>
-      <c r="AA6" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>80</v>
-      </c>
       <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9.4</v>
       </c>
       <c r="AH6" t="n">
         <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.4</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="G7" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="H7" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>2.88</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB7" t="n">
         <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.56</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.9</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7.4</v>
-      </c>
       <c r="T8" t="n">
-        <v>2.42</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,666 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.45</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.1</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN9" t="n">
         <v>22</v>
       </c>
-      <c r="AK9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Ceara SC Fortaleza</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE10" t="n">
         <v>60</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Pumas UNAM</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="I2" t="n">
-        <v>1.37</v>
+        <v>1.71</v>
       </c>
       <c r="J2" t="n">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>1.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.19</v>
+        <v>2.84</v>
       </c>
       <c r="R2" t="n">
-        <v>2.16</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.82</v>
+        <v>5.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.39</v>
+        <v>2.32</v>
       </c>
       <c r="U2" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>3.7</v>
+        <v>2.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.9</v>
+        <v>8.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.199999999999999</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>15.5</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL2" t="n">
-        <v>17.5</v>
+        <v>220</v>
       </c>
       <c r="AM2" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AN2" t="n">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,90 +788,90 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:10:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boyaca Patriotas</t>
+          <t>America de Cali S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.81</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.85</v>
-      </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
         <v>5.9</v>
       </c>
       <c r="J3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.5</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.1</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W3" t="n">
         <v>2.32</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.16</v>
-      </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
         <v>55</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>27</v>
@@ -883,37 +883,37 @@
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN3" t="n">
         <v>15.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>2.84</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.73</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.4</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,666 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.89</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
         <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
         <v>18</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brazilian Serie A</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ceara SC Fortaleza</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA6" t="n">
         <v>75</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Atletico Nacional Medellin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>America de Cali S.A</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="X7" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CD Motagua</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Pachuca</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Pumas UNAM</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
